--- a/nfl_output.xlsx
+++ b/nfl_output.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\PycharmProjects\NFL Weekly Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A34D92-BF0F-43CE-8EA3-B02EBA837834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>Match ID</t>
   </si>
@@ -100,95 +106,104 @@
     <t>Match 14</t>
   </si>
   <si>
+    <t>Match 15</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>New England</t>
+  </si>
+  <si>
+    <t>Jacksonville</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>NY Giants</t>
+  </si>
+  <si>
+    <t>Detroit</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Indianapolis</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Green Bay</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Cleveland</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Las Vegas</t>
+  </si>
+  <si>
+    <t>LA Rams</t>
+  </si>
+  <si>
+    <t>Carolina</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Kansas City</t>
+  </si>
+  <si>
     <t>San Francisco</t>
   </si>
   <si>
-    <t>Seattle</t>
-  </si>
-  <si>
-    <t>Jacksonville</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>Indianapolis</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Cleveland</t>
-  </si>
-  <si>
-    <t>Philadelphia</t>
+    <t>NY Jets</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Baltimore</t>
   </si>
   <si>
     <t>Tampa Bay</t>
   </si>
   <si>
-    <t>New Orleans</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>New England</t>
+    <t>LA Chargers</t>
   </si>
   <si>
     <t>Arizona</t>
-  </si>
-  <si>
-    <t>Green Bay</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Baltimore</t>
-  </si>
-  <si>
-    <t>LA Chargers</t>
-  </si>
-  <si>
-    <t>Denver</t>
-  </si>
-  <si>
-    <t>Pittsburgh</t>
-  </si>
-  <si>
-    <t>Las Vegas</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
-    <t>Carolina</t>
-  </si>
-  <si>
-    <t>Detroit</t>
-  </si>
-  <si>
-    <t>Dallas</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>NY Giants</t>
-  </si>
-  <si>
-    <t>Buffalo</t>
-  </si>
-  <si>
-    <t>NY Jets</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +266,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -297,7 +320,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,9 +352,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,6 +404,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,14 +597,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,1236 +650,1324 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J2">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="K2">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="N2">
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
         <v>25</v>
       </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>18</v>
-      </c>
-      <c r="G3">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>29</v>
-      </c>
-      <c r="J3">
-        <v>23</v>
-      </c>
       <c r="K3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M3">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="N3">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4">
+        <v>31</v>
+      </c>
+      <c r="D4">
         <v>21</v>
       </c>
-      <c r="D4">
-        <v>30</v>
-      </c>
       <c r="E4">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G4">
+        <v>31</v>
+      </c>
+      <c r="H4">
+        <v>26</v>
+      </c>
+      <c r="I4">
         <v>18</v>
       </c>
-      <c r="H4">
-        <v>25</v>
-      </c>
-      <c r="I4">
-        <v>25</v>
-      </c>
       <c r="J4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L4">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M4">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="N4">
-        <v>23.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
         <v>31</v>
       </c>
-      <c r="C5">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
       <c r="E5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K5">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>123</v>
+        <v>235</v>
       </c>
       <c r="N5">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
+      <c r="J6">
         <v>13</v>
       </c>
-      <c r="D6">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>18</v>
-      </c>
-      <c r="F6">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="H6">
-        <v>28</v>
-      </c>
-      <c r="I6">
-        <v>13</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
       <c r="K6">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="M6">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="N6">
-        <v>15.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>21</v>
       </c>
-      <c r="F7">
-        <v>29</v>
-      </c>
       <c r="G7">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I7">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K7">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="N7">
-        <v>17.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
         <v>30</v>
       </c>
-      <c r="D8">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>32</v>
-      </c>
-      <c r="G8">
-        <v>32</v>
-      </c>
-      <c r="H8">
-        <v>12</v>
-      </c>
-      <c r="I8">
-        <v>19</v>
-      </c>
-      <c r="J8">
-        <v>25</v>
-      </c>
       <c r="K8">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="M8">
-        <v>202</v>
+        <v>94</v>
       </c>
       <c r="N8">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>19</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
         <v>16</v>
       </c>
-      <c r="I9">
-        <v>31</v>
-      </c>
-      <c r="J9">
-        <v>14</v>
-      </c>
-      <c r="K9">
-        <v>21</v>
-      </c>
-      <c r="L9">
-        <v>13</v>
-      </c>
       <c r="M9">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="N9">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>17</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="L10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M10">
-        <v>135</v>
+        <v>230</v>
       </c>
       <c r="N10">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>24</v>
+      </c>
+      <c r="F11">
         <v>8</v>
       </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
       <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>28</v>
+      </c>
+      <c r="I11">
+        <v>11</v>
+      </c>
+      <c r="J11">
         <v>1</v>
       </c>
-      <c r="H11">
-        <v>17</v>
-      </c>
-      <c r="I11">
-        <v>7</v>
-      </c>
-      <c r="J11">
-        <v>22</v>
-      </c>
       <c r="K11">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M11">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="N11">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12">
         <v>21</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I12">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J12">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M12">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="N12">
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>9</v>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G13">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>20</v>
       </c>
       <c r="K13">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M13">
-        <v>210</v>
+        <v>123</v>
       </c>
       <c r="N13">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>26</v>
+      </c>
+      <c r="I14">
         <v>13</v>
       </c>
-      <c r="G14">
-        <v>11</v>
-      </c>
-      <c r="H14">
-        <v>30</v>
-      </c>
-      <c r="I14">
-        <v>9</v>
-      </c>
       <c r="J14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M14">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="N14">
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F15">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>13</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J15">
         <v>24</v>
       </c>
       <c r="K15">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="N15">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G16">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H16">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J16">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="K16">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L16">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="N16">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>24</v>
+      </c>
+      <c r="G17">
         <v>2</v>
       </c>
-      <c r="D17">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-      <c r="F17">
+      <c r="H17">
+        <v>22</v>
+      </c>
+      <c r="I17">
         <v>3</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>21</v>
-      </c>
-      <c r="I17">
+      <c r="J17">
+        <v>8</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
+      </c>
+      <c r="L17">
         <v>13</v>
       </c>
-      <c r="J17">
-        <v>29</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>18</v>
-      </c>
       <c r="M17">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="N17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>26</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
         <v>28</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>13</v>
-      </c>
-      <c r="F18">
-        <v>21</v>
-      </c>
-      <c r="G18">
-        <v>13</v>
-      </c>
-      <c r="H18">
+      <c r="J18">
+        <v>23</v>
+      </c>
+      <c r="K18">
+        <v>11</v>
+      </c>
+      <c r="L18">
         <v>20</v>
       </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
-      <c r="J18">
-        <v>10</v>
-      </c>
-      <c r="K18">
-        <v>24</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
       <c r="M18">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="N18">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F19">
+        <v>23</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
         <v>31</v>
-      </c>
-      <c r="G19">
-        <v>4</v>
-      </c>
-      <c r="H19">
-        <v>9</v>
       </c>
       <c r="I19">
         <v>13</v>
       </c>
       <c r="J19">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="K19">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="N19">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F20">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G20">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H20">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="J20">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="K20">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="N20">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E21">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F21">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G21">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="I21">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K21">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="N21">
-        <v>19.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E22">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22">
         <v>26</v>
       </c>
       <c r="G22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H22">
+        <v>30</v>
+      </c>
+      <c r="I22">
+        <v>25</v>
+      </c>
+      <c r="J22">
+        <v>21</v>
+      </c>
+      <c r="K22">
+        <v>17</v>
+      </c>
+      <c r="L22">
         <v>32</v>
       </c>
-      <c r="I22">
-        <v>19</v>
-      </c>
-      <c r="J22">
-        <v>17</v>
-      </c>
-      <c r="K22">
-        <v>29</v>
-      </c>
-      <c r="L22">
-        <v>15</v>
-      </c>
       <c r="M22">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="N22">
-        <v>21.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F23">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H23">
         <v>29</v>
       </c>
       <c r="I23">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J23">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="K23">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>256</v>
+        <v>140</v>
       </c>
       <c r="N23">
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>26</v>
+      </c>
+      <c r="F24">
+        <v>9</v>
+      </c>
+      <c r="G24">
         <v>8</v>
       </c>
-      <c r="D24">
-        <v>10</v>
-      </c>
-      <c r="E24">
-        <v>13</v>
-      </c>
-      <c r="F24">
-        <v>5</v>
-      </c>
-      <c r="G24">
-        <v>6</v>
-      </c>
       <c r="H24">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I24">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="J24">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="K24">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L24">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M24">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="N24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E25">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>12</v>
+      </c>
+      <c r="H25">
+        <v>23</v>
+      </c>
+      <c r="I25">
         <v>8</v>
       </c>
-      <c r="G25">
-        <v>14</v>
-      </c>
-      <c r="H25">
-        <v>6</v>
-      </c>
-      <c r="I25">
-        <v>19</v>
-      </c>
       <c r="J25">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="K25">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M25">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="N25">
-        <v>17.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
         <v>4</v>
       </c>
-      <c r="D26">
+      <c r="F26">
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>17</v>
+      </c>
+      <c r="H26">
+        <v>9</v>
+      </c>
+      <c r="I26">
+        <v>18</v>
+      </c>
+      <c r="J26">
         <v>31</v>
       </c>
-      <c r="E26">
-        <v>30</v>
-      </c>
-      <c r="F26">
-        <v>4</v>
-      </c>
-      <c r="G26">
-        <v>11</v>
-      </c>
-      <c r="H26">
-        <v>31</v>
-      </c>
-      <c r="I26">
-        <v>16</v>
-      </c>
-      <c r="J26">
-        <v>2</v>
-      </c>
       <c r="K26">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="M26">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="N26">
-        <v>16.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F27">
         <v>19</v>
       </c>
       <c r="G27">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H27">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I27">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="J27">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K27">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L27">
         <v>5</v>
       </c>
       <c r="M27">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="N27">
-        <v>14.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E28">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I28">
+        <v>13</v>
+      </c>
+      <c r="J28">
+        <v>28</v>
+      </c>
+      <c r="K28">
         <v>1</v>
       </c>
-      <c r="J28">
-        <v>3</v>
-      </c>
-      <c r="K28">
-        <v>7</v>
-      </c>
       <c r="L28">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M28">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="N28">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>19</v>
+      </c>
+      <c r="E29">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>21</v>
+      </c>
+      <c r="H29">
+        <v>17</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <v>9</v>
+      </c>
+      <c r="L29">
+        <v>20</v>
+      </c>
+      <c r="M29">
+        <v>117</v>
+      </c>
+      <c r="N29">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30">
+        <v>26</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>15</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>14</v>
+      </c>
+      <c r="H30">
+        <v>18</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>28</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>119</v>
+      </c>
+      <c r="N30">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>27</v>
+      </c>
+      <c r="E31">
         <v>25</v>
       </c>
-      <c r="D29">
-        <v>5</v>
-      </c>
-      <c r="E29">
-        <v>4</v>
-      </c>
-      <c r="F29">
-        <v>10</v>
-      </c>
-      <c r="G29">
-        <v>18</v>
-      </c>
-      <c r="H29">
-        <v>8</v>
-      </c>
-      <c r="I29">
-        <v>16</v>
-      </c>
-      <c r="J29">
-        <v>27</v>
-      </c>
-      <c r="K29">
-        <v>11</v>
-      </c>
-      <c r="L29">
-        <v>5</v>
-      </c>
-      <c r="M29">
-        <v>129</v>
-      </c>
-      <c r="N29">
-        <v>12.9</v>
+      <c r="F31">
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <v>9</v>
+      </c>
+      <c r="H31">
+        <v>32</v>
+      </c>
+      <c r="I31">
+        <v>13</v>
+      </c>
+      <c r="J31">
+        <v>15</v>
+      </c>
+      <c r="K31">
+        <v>13</v>
+      </c>
+      <c r="L31">
+        <v>28</v>
+      </c>
+      <c r="M31">
+        <v>194</v>
+      </c>
+      <c r="N31">
+        <v>19.399999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/nfl_output.xlsx
+++ b/nfl_output.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\PycharmProjects\NFL Weekly Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A34D92-BF0F-43CE-8EA3-B02EBA837834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t>Match ID</t>
   </si>
@@ -109,101 +103,110 @@
     <t>Match 15</t>
   </si>
   <si>
+    <t>Match 16</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>LA Rams</t>
+  </si>
+  <si>
+    <t>Green Bay</t>
+  </si>
+  <si>
+    <t>Jacksonville</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Tampa Bay</t>
+  </si>
+  <si>
+    <t>NY Jets</t>
+  </si>
+  <si>
+    <t>New England</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Indianapolis</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Detroit</t>
+  </si>
+  <si>
+    <t>Baltimore</t>
+  </si>
+  <si>
+    <t>Cleveland</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>LA Chargers</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Kansas City</t>
+  </si>
+  <si>
+    <t>Las Vegas</t>
+  </si>
+  <si>
+    <t>Carolina</t>
+  </si>
+  <si>
     <t>Denver</t>
   </si>
   <si>
-    <t>New Orleans</t>
-  </si>
-  <si>
-    <t>New England</t>
-  </si>
-  <si>
-    <t>Jacksonville</t>
-  </si>
-  <si>
-    <t>Philadelphia</t>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
   </si>
   <si>
     <t>NY Giants</t>
   </si>
   <si>
-    <t>Detroit</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Indianapolis</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>Green Bay</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>Cleveland</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Buffalo</t>
-  </si>
-  <si>
-    <t>Seattle</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
-    <t>Las Vegas</t>
-  </si>
-  <si>
-    <t>LA Rams</t>
-  </si>
-  <si>
-    <t>Carolina</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Kansas City</t>
-  </si>
-  <si>
-    <t>San Francisco</t>
-  </si>
-  <si>
-    <t>NY Jets</t>
-  </si>
-  <si>
     <t>Pittsburgh</t>
-  </si>
-  <si>
-    <t>Baltimore</t>
-  </si>
-  <si>
-    <t>Tampa Bay</t>
-  </si>
-  <si>
-    <t>LA Chargers</t>
-  </si>
-  <si>
-    <t>Arizona</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,14 +269,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -320,7 +315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,27 +347,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,24 +381,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -597,16 +556,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,1324 +607,1412 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H2">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K2">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="M2">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="N2">
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>20</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
         <v>25</v>
       </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
       <c r="L3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="N3">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>19</v>
+      </c>
+      <c r="K4">
         <v>18</v>
       </c>
-      <c r="F4">
-        <v>27</v>
-      </c>
-      <c r="G4">
-        <v>31</v>
-      </c>
-      <c r="H4">
-        <v>26</v>
-      </c>
-      <c r="I4">
-        <v>18</v>
-      </c>
-      <c r="J4">
-        <v>18</v>
-      </c>
-      <c r="K4">
-        <v>32</v>
-      </c>
       <c r="L4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M4">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="N4">
-        <v>23.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>18</v>
       </c>
       <c r="F5">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5">
         <v>31</v>
       </c>
       <c r="M5">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="N5">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>21</v>
+      </c>
+      <c r="J6">
         <v>18</v>
       </c>
-      <c r="D6">
-        <v>14</v>
-      </c>
-      <c r="E6">
+      <c r="K6">
         <v>23</v>
       </c>
-      <c r="F6">
-        <v>18</v>
-      </c>
-      <c r="G6">
-        <v>20</v>
-      </c>
-      <c r="H6">
-        <v>12</v>
-      </c>
-      <c r="I6">
-        <v>30</v>
-      </c>
-      <c r="J6">
-        <v>13</v>
-      </c>
-      <c r="K6">
-        <v>25</v>
-      </c>
       <c r="L6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M6">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="N6">
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>19</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
+      <c r="L7">
         <v>29</v>
       </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>21</v>
-      </c>
-      <c r="G7">
-        <v>13</v>
-      </c>
-      <c r="H7">
-        <v>11</v>
-      </c>
-      <c r="I7">
-        <v>22</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="K7">
-        <v>25</v>
-      </c>
-      <c r="L7">
-        <v>4</v>
-      </c>
       <c r="M7">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="N7">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
         <v>8</v>
       </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
       <c r="F8">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="J8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M8">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="N8">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J9">
+        <v>17</v>
+      </c>
+      <c r="K9">
+        <v>28</v>
+      </c>
+      <c r="L9">
         <v>19</v>
       </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-      <c r="L9">
-        <v>16</v>
-      </c>
       <c r="M9">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="N9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>23</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
         <v>32</v>
       </c>
-      <c r="D10">
-        <v>17</v>
-      </c>
-      <c r="E10">
-        <v>26</v>
-      </c>
-      <c r="F10">
-        <v>29</v>
-      </c>
-      <c r="G10">
-        <v>27</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
       <c r="I10">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J10">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="K10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="L10">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M10">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="N10">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>27</v>
+      </c>
+      <c r="G11">
         <v>24</v>
       </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
       <c r="H11">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>150</v>
+        <v>227</v>
       </c>
       <c r="N11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F12">
         <v>11</v>
       </c>
       <c r="G12">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="H12">
+        <v>25</v>
+      </c>
+      <c r="I12">
         <v>10</v>
       </c>
-      <c r="I12">
-        <v>13</v>
-      </c>
       <c r="J12">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="L12">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M12">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="N12">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>24</v>
+      </c>
+      <c r="H13">
+        <v>13</v>
+      </c>
+      <c r="I13">
         <v>8</v>
       </c>
-      <c r="D13">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>12</v>
-      </c>
-      <c r="F13">
-        <v>16</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>16</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
       <c r="J13">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M13">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="N13">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14">
+        <v>29</v>
+      </c>
+      <c r="G14">
+        <v>27</v>
+      </c>
+      <c r="H14">
         <v>5</v>
       </c>
-      <c r="G14">
-        <v>15</v>
-      </c>
-      <c r="H14">
-        <v>26</v>
-      </c>
       <c r="I14">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L14">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M14">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="N14">
-        <v>16.100000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J15">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>204</v>
+        <v>86</v>
       </c>
       <c r="N15">
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>27</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16">
         <v>30</v>
       </c>
-      <c r="G16">
-        <v>27</v>
-      </c>
-      <c r="H16">
-        <v>5</v>
-      </c>
-      <c r="I16">
-        <v>31</v>
-      </c>
-      <c r="J16">
-        <v>22</v>
-      </c>
       <c r="K16">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="N16">
-        <v>18.899999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>32</v>
+      </c>
+      <c r="G17">
+        <v>32</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <v>21</v>
+      </c>
+      <c r="J17">
+        <v>26</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
         <v>12</v>
       </c>
-      <c r="F17">
-        <v>24</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>22</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-      <c r="J17">
-        <v>8</v>
-      </c>
-      <c r="K17">
-        <v>6</v>
-      </c>
-      <c r="L17">
-        <v>13</v>
-      </c>
       <c r="M17">
-        <v>108</v>
+        <v>196</v>
       </c>
       <c r="N17">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>23</v>
+      </c>
+      <c r="G18">
+        <v>27</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>29</v>
+      </c>
+      <c r="J18">
         <v>9</v>
       </c>
-      <c r="F18">
-        <v>20</v>
-      </c>
-      <c r="G18">
-        <v>26</v>
-      </c>
-      <c r="H18">
-        <v>8</v>
-      </c>
-      <c r="I18">
-        <v>28</v>
-      </c>
-      <c r="J18">
-        <v>23</v>
-      </c>
       <c r="K18">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="N18">
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F19">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H19">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I19">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J19">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="K19">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="N19">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F20">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G20">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I20">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="J20">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="K20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L20">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="M20">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="N20">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21">
         <v>17</v>
       </c>
-      <c r="G21">
-        <v>27</v>
-      </c>
       <c r="H21">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I21">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K21">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="M21">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="N21">
-        <v>22.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F22">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>22</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>7</v>
+      </c>
+      <c r="L22">
+        <v>12</v>
+      </c>
+      <c r="M22">
+        <v>100</v>
+      </c>
+      <c r="N22">
         <v>10</v>
       </c>
-      <c r="H22">
-        <v>30</v>
-      </c>
-      <c r="I22">
-        <v>25</v>
-      </c>
-      <c r="J22">
-        <v>21</v>
-      </c>
-      <c r="K22">
-        <v>17</v>
-      </c>
-      <c r="L22">
-        <v>32</v>
-      </c>
-      <c r="M22">
-        <v>252</v>
-      </c>
-      <c r="N22">
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G23">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H23">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I23">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J23">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="K23">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="N23">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>28</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>25</v>
+      </c>
+      <c r="J24">
         <v>15</v>
       </c>
-      <c r="D24">
-        <v>6</v>
-      </c>
-      <c r="E24">
-        <v>26</v>
-      </c>
-      <c r="F24">
-        <v>9</v>
-      </c>
-      <c r="G24">
-        <v>8</v>
-      </c>
-      <c r="H24">
-        <v>14</v>
-      </c>
-      <c r="I24">
-        <v>27</v>
-      </c>
-      <c r="J24">
-        <v>14</v>
-      </c>
       <c r="K24">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M24">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="N24">
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E25">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G25">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H25">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J25">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K25">
+        <v>11</v>
+      </c>
+      <c r="L25">
         <v>25</v>
       </c>
-      <c r="L25">
-        <v>13</v>
-      </c>
       <c r="M25">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="N25">
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F26">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G26">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H26">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="I26">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J26">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K26">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L26">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>146</v>
+        <v>259</v>
       </c>
       <c r="N26">
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
         <v>2</v>
       </c>
-      <c r="E27">
+      <c r="F27">
+        <v>31</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
         <v>18</v>
       </c>
-      <c r="F27">
-        <v>19</v>
-      </c>
-      <c r="G27">
-        <v>17</v>
-      </c>
-      <c r="H27">
-        <v>15</v>
-      </c>
       <c r="I27">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J27">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K27">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="N27">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28">
         <v>4</v>
       </c>
-      <c r="D28">
-        <v>24</v>
-      </c>
       <c r="E28">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I28">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J28">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="N28">
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E29">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G29">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H29">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J29">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K29">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="N29">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E30">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F30">
         <v>10</v>
       </c>
       <c r="G30">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H30">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="K30">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="N30">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E31">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F31">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G31">
         <v>9</v>
       </c>
       <c r="H31">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I31">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <v>27</v>
+      </c>
+      <c r="L31">
+        <v>19</v>
+      </c>
+      <c r="M31">
+        <v>149</v>
+      </c>
+      <c r="N31">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>22</v>
+      </c>
+      <c r="G32">
+        <v>26</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>20</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>29</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>150</v>
+      </c>
+      <c r="N32">
         <v>15</v>
       </c>
-      <c r="K31">
-        <v>13</v>
-      </c>
-      <c r="L31">
-        <v>28</v>
-      </c>
-      <c r="M31">
-        <v>194</v>
-      </c>
-      <c r="N31">
-        <v>19.399999999999999</v>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33">
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <v>17</v>
+      </c>
+      <c r="G33">
+        <v>14</v>
+      </c>
+      <c r="H33">
+        <v>14</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>16</v>
+      </c>
+      <c r="K33">
+        <v>18</v>
+      </c>
+      <c r="L33">
+        <v>7</v>
+      </c>
+      <c r="M33">
+        <v>126</v>
+      </c>
+      <c r="N33">
+        <v>12.6</v>
       </c>
     </row>
   </sheetData>
